--- a/docs/250430_Gantchart_Tom_Nielsen.xlsx
+++ b/docs/250430_Gantchart_Tom_Nielsen.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{F4B7A9DE-D724-4D76-9215-FF6B037D20B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D623E574-E5E9-43FC-BEED-5DE48B161ACA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED1B8E1-01DD-4E2C-BCBC-156AC4178406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -110,9 +110,6 @@
     <t>Titelblock für Beispielphase</t>
   </si>
   <si>
-    <t>Dies ist eine leere Zeile.</t>
-  </si>
-  <si>
     <t>Diese Zeile kennzeichnet das Ende des Projektplans. Geben Sie in dieser Zeile NICHTS EIN. 
 Fügen Sie ÜBER dieser Zeile neue Zeilen ein, um mit der Erstellung Ihres Projektplans fortzufahren.</t>
   </si>
@@ -129,21 +126,6 @@
     <t>AUFGABE</t>
   </si>
   <si>
-    <t>Aufgabe 1</t>
-  </si>
-  <si>
-    <t>Aufgabe 2</t>
-  </si>
-  <si>
-    <t>Aufgabe 3</t>
-  </si>
-  <si>
-    <t>Aufgabe 4</t>
-  </si>
-  <si>
-    <t>Aufgabe 5</t>
-  </si>
-  <si>
     <t>Neue Zeilen ÜBER dieser einfügen</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
   </si>
   <si>
     <t>START</t>
-  </si>
-  <si>
-    <t>Datum</t>
   </si>
   <si>
     <t>ENDE</t>
@@ -253,6 +232,24 @@
   </si>
   <si>
     <t>Programm Aufbau Planen</t>
+  </si>
+  <si>
+    <t>Komponente entscheiden</t>
+  </si>
+  <si>
+    <t>Chip ersetzen</t>
+  </si>
+  <si>
+    <t>Programme programmiert</t>
+  </si>
+  <si>
+    <t>Kontrollieren</t>
+  </si>
+  <si>
+    <t>Alles kontrollieren</t>
+  </si>
+  <si>
+    <t>Elternabend</t>
   </si>
 </sst>
 </file>
@@ -1094,9 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1229,9 +1223,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="11">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1242,9 +1233,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1291,9 +1279,6 @@
     <xf numFmtId="168" fontId="9" fillId="10" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1309,6 +1294,21 @@
     <xf numFmtId="171" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1321,20 +1321,17 @@
     <xf numFmtId="169" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1943,20 +1940,20 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL34"/>
+  <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="44" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
@@ -1965,397 +1962,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>14</v>
+      <c r="B1" s="48" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="67"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="94"/>
-      <c r="I2" s="68"/>
+      <c r="B2" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="91">
+      <c r="B3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="86"/>
+      <c r="E3" s="92">
         <v>45733</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="93"/>
+      <c r="C4" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="88"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="88">
+        <v>4</v>
+      </c>
+      <c r="I4" s="89">
         <f>I5</f>
-        <v>45733</v>
-      </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+        <v>45754</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
-        <v>45740</v>
-      </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+        <v>45761</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
-        <v>45747</v>
-      </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+        <v>45768</v>
+      </c>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
-        <v>45754</v>
-      </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+        <v>45775</v>
+      </c>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
-        <v>45761</v>
-      </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+        <v>45782</v>
+      </c>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
-        <v>45768</v>
-      </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+        <v>45789</v>
+      </c>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
-        <v>45775</v>
-      </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+        <v>45796</v>
+      </c>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
-        <v>45782</v>
-      </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+        <v>45803</v>
+      </c>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="I5" s="85">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="I5" s="81">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
-        <v>45733</v>
-      </c>
-      <c r="J5" s="86">
+        <v>45754</v>
+      </c>
+      <c r="J5" s="82">
         <f>I5+1</f>
-        <v>45734</v>
-      </c>
-      <c r="K5" s="86">
+        <v>45755</v>
+      </c>
+      <c r="K5" s="82">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45735</v>
-      </c>
-      <c r="L5" s="86">
-        <f t="shared" si="0"/>
-        <v>45736</v>
-      </c>
-      <c r="M5" s="86">
-        <f t="shared" si="0"/>
-        <v>45737</v>
-      </c>
-      <c r="N5" s="86">
-        <f t="shared" si="0"/>
-        <v>45738</v>
-      </c>
-      <c r="O5" s="87">
-        <f t="shared" si="0"/>
-        <v>45739</v>
-      </c>
-      <c r="P5" s="85">
-        <f>O5+1</f>
-        <v>45740</v>
-      </c>
-      <c r="Q5" s="86">
-        <f>P5+1</f>
-        <v>45741</v>
-      </c>
-      <c r="R5" s="86">
-        <f t="shared" si="0"/>
-        <v>45742</v>
-      </c>
-      <c r="S5" s="86">
-        <f t="shared" si="0"/>
-        <v>45743</v>
-      </c>
-      <c r="T5" s="86">
-        <f t="shared" si="0"/>
-        <v>45744</v>
-      </c>
-      <c r="U5" s="86">
-        <f t="shared" si="0"/>
-        <v>45745</v>
-      </c>
-      <c r="V5" s="87">
-        <f t="shared" si="0"/>
-        <v>45746</v>
-      </c>
-      <c r="W5" s="85">
-        <f>V5+1</f>
-        <v>45747</v>
-      </c>
-      <c r="X5" s="86">
-        <f>W5+1</f>
-        <v>45748</v>
-      </c>
-      <c r="Y5" s="86">
-        <f t="shared" si="0"/>
-        <v>45749</v>
-      </c>
-      <c r="Z5" s="86">
-        <f t="shared" si="0"/>
-        <v>45750</v>
-      </c>
-      <c r="AA5" s="86">
-        <f t="shared" si="0"/>
-        <v>45751</v>
-      </c>
-      <c r="AB5" s="86">
-        <f t="shared" si="0"/>
-        <v>45752</v>
-      </c>
-      <c r="AC5" s="87">
-        <f t="shared" si="0"/>
-        <v>45753</v>
-      </c>
-      <c r="AD5" s="85">
-        <f>AC5+1</f>
-        <v>45754</v>
-      </c>
-      <c r="AE5" s="86">
-        <f>AD5+1</f>
-        <v>45755</v>
-      </c>
-      <c r="AF5" s="86">
-        <f t="shared" si="0"/>
         <v>45756</v>
       </c>
-      <c r="AG5" s="86">
+      <c r="L5" s="82">
         <f t="shared" si="0"/>
         <v>45757</v>
       </c>
-      <c r="AH5" s="86">
+      <c r="M5" s="82">
         <f t="shared" si="0"/>
         <v>45758</v>
       </c>
-      <c r="AI5" s="86">
+      <c r="N5" s="82">
         <f t="shared" si="0"/>
         <v>45759</v>
       </c>
-      <c r="AJ5" s="87">
+      <c r="O5" s="83">
         <f t="shared" si="0"/>
         <v>45760</v>
       </c>
-      <c r="AK5" s="85">
-        <f>AJ5+1</f>
+      <c r="P5" s="81">
+        <f>O5+1</f>
         <v>45761</v>
       </c>
-      <c r="AL5" s="86">
-        <f>AK5+1</f>
+      <c r="Q5" s="82">
+        <f>P5+1</f>
         <v>45762</v>
       </c>
-      <c r="AM5" s="86">
+      <c r="R5" s="82">
         <f t="shared" si="0"/>
         <v>45763</v>
       </c>
-      <c r="AN5" s="86">
+      <c r="S5" s="82">
         <f t="shared" si="0"/>
         <v>45764</v>
       </c>
-      <c r="AO5" s="86">
+      <c r="T5" s="82">
         <f t="shared" si="0"/>
         <v>45765</v>
       </c>
-      <c r="AP5" s="86">
+      <c r="U5" s="82">
         <f t="shared" si="0"/>
         <v>45766</v>
       </c>
-      <c r="AQ5" s="87">
+      <c r="V5" s="83">
         <f t="shared" si="0"/>
         <v>45767</v>
       </c>
-      <c r="AR5" s="85">
-        <f>AQ5+1</f>
+      <c r="W5" s="81">
+        <f>V5+1</f>
         <v>45768</v>
       </c>
-      <c r="AS5" s="86">
-        <f>AR5+1</f>
+      <c r="X5" s="82">
+        <f>W5+1</f>
         <v>45769</v>
       </c>
-      <c r="AT5" s="86">
+      <c r="Y5" s="82">
         <f t="shared" si="0"/>
         <v>45770</v>
       </c>
-      <c r="AU5" s="86">
+      <c r="Z5" s="82">
         <f t="shared" si="0"/>
         <v>45771</v>
       </c>
-      <c r="AV5" s="86">
+      <c r="AA5" s="82">
         <f t="shared" si="0"/>
         <v>45772</v>
       </c>
-      <c r="AW5" s="86">
+      <c r="AB5" s="82">
         <f t="shared" si="0"/>
         <v>45773</v>
       </c>
-      <c r="AX5" s="87">
+      <c r="AC5" s="83">
         <f t="shared" si="0"/>
         <v>45774</v>
       </c>
-      <c r="AY5" s="85">
+      <c r="AD5" s="81">
+        <f>AC5+1</f>
+        <v>45775</v>
+      </c>
+      <c r="AE5" s="82">
+        <f>AD5+1</f>
+        <v>45776</v>
+      </c>
+      <c r="AF5" s="82">
+        <f t="shared" si="0"/>
+        <v>45777</v>
+      </c>
+      <c r="AG5" s="82">
+        <f t="shared" si="0"/>
+        <v>45778</v>
+      </c>
+      <c r="AH5" s="82">
+        <f t="shared" si="0"/>
+        <v>45779</v>
+      </c>
+      <c r="AI5" s="82">
+        <f t="shared" si="0"/>
+        <v>45780</v>
+      </c>
+      <c r="AJ5" s="83">
+        <f t="shared" si="0"/>
+        <v>45781</v>
+      </c>
+      <c r="AK5" s="81">
+        <f>AJ5+1</f>
+        <v>45782</v>
+      </c>
+      <c r="AL5" s="82">
+        <f>AK5+1</f>
+        <v>45783</v>
+      </c>
+      <c r="AM5" s="82">
+        <f t="shared" si="0"/>
+        <v>45784</v>
+      </c>
+      <c r="AN5" s="82">
+        <f t="shared" si="0"/>
+        <v>45785</v>
+      </c>
+      <c r="AO5" s="82">
+        <f t="shared" si="0"/>
+        <v>45786</v>
+      </c>
+      <c r="AP5" s="82">
+        <f t="shared" si="0"/>
+        <v>45787</v>
+      </c>
+      <c r="AQ5" s="83">
+        <f t="shared" si="0"/>
+        <v>45788</v>
+      </c>
+      <c r="AR5" s="81">
+        <f>AQ5+1</f>
+        <v>45789</v>
+      </c>
+      <c r="AS5" s="82">
+        <f>AR5+1</f>
+        <v>45790</v>
+      </c>
+      <c r="AT5" s="82">
+        <f t="shared" si="0"/>
+        <v>45791</v>
+      </c>
+      <c r="AU5" s="82">
+        <f t="shared" si="0"/>
+        <v>45792</v>
+      </c>
+      <c r="AV5" s="82">
+        <f t="shared" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="AW5" s="82">
+        <f t="shared" si="0"/>
+        <v>45794</v>
+      </c>
+      <c r="AX5" s="83">
+        <f t="shared" si="0"/>
+        <v>45795</v>
+      </c>
+      <c r="AY5" s="81">
         <f>AX5+1</f>
-        <v>45775</v>
-      </c>
-      <c r="AZ5" s="86">
+        <v>45796</v>
+      </c>
+      <c r="AZ5" s="82">
         <f>AY5+1</f>
-        <v>45776</v>
-      </c>
-      <c r="BA5" s="86">
+        <v>45797</v>
+      </c>
+      <c r="BA5" s="82">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45777</v>
-      </c>
-      <c r="BB5" s="86">
+        <v>45798</v>
+      </c>
+      <c r="BB5" s="82">
         <f t="shared" si="1"/>
-        <v>45778</v>
-      </c>
-      <c r="BC5" s="86">
+        <v>45799</v>
+      </c>
+      <c r="BC5" s="82">
         <f t="shared" si="1"/>
-        <v>45779</v>
-      </c>
-      <c r="BD5" s="86">
+        <v>45800</v>
+      </c>
+      <c r="BD5" s="82">
         <f t="shared" si="1"/>
-        <v>45780</v>
-      </c>
-      <c r="BE5" s="87">
+        <v>45801</v>
+      </c>
+      <c r="BE5" s="83">
         <f t="shared" si="1"/>
-        <v>45781</v>
-      </c>
-      <c r="BF5" s="85">
+        <v>45802</v>
+      </c>
+      <c r="BF5" s="81">
         <f>BE5+1</f>
-        <v>45782</v>
-      </c>
-      <c r="BG5" s="86">
+        <v>45803</v>
+      </c>
+      <c r="BG5" s="82">
         <f>BF5+1</f>
-        <v>45783</v>
-      </c>
-      <c r="BH5" s="86">
+        <v>45804</v>
+      </c>
+      <c r="BH5" s="82">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45784</v>
-      </c>
-      <c r="BI5" s="86">
+        <v>45805</v>
+      </c>
+      <c r="BI5" s="82">
         <f t="shared" si="2"/>
-        <v>45785</v>
-      </c>
-      <c r="BJ5" s="86">
+        <v>45806</v>
+      </c>
+      <c r="BJ5" s="82">
         <f t="shared" si="2"/>
-        <v>45786</v>
-      </c>
-      <c r="BK5" s="86">
+        <v>45807</v>
+      </c>
+      <c r="BK5" s="82">
         <f t="shared" si="2"/>
-        <v>45787</v>
-      </c>
-      <c r="BL5" s="87">
+        <v>45808</v>
+      </c>
+      <c r="BL5" s="83">
         <f t="shared" si="2"/>
-        <v>45788</v>
+        <v>45809</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"TTTT"),1)</f>
@@ -2486,7 +2483,7 @@
         <v>D</v>
       </c>
       <c r="AO6" s="10" t="str">
-        <f t="shared" ref="AO6:BT6" si="4">LEFT(TEXT(AO5,"TTTT"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"TTTT"),1)</f>
         <v>F</v>
       </c>
       <c r="AP6" s="10" t="str">
@@ -2583,1916 +2580,1386 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="47"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="31"/>
-      <c r="AV7" s="31"/>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="31"/>
-      <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="31"/>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="31"/>
-      <c r="BE7" s="31"/>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="31"/>
-      <c r="BH7" s="31"/>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="31"/>
-      <c r="BK7" s="31"/>
-      <c r="BL7" s="31"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="30"/>
+      <c r="BG7" s="30"/>
+      <c r="BH7" s="30"/>
+      <c r="BI7" s="30"/>
+      <c r="BJ7" s="30"/>
+      <c r="BK7" s="30"/>
+      <c r="BL7" s="30"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H31" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="str">
+        <f t="shared" ref="H8:H24" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="31"/>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="31"/>
-      <c r="AV8" s="31"/>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="31"/>
-      <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="31"/>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="31"/>
-      <c r="BE8" s="31"/>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="31"/>
-      <c r="BH8" s="31"/>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="31"/>
-      <c r="BK8" s="31"/>
-      <c r="BL8" s="31"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="30"/>
+      <c r="AS8" s="30"/>
+      <c r="AT8" s="30"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="30"/>
+      <c r="AX8" s="30"/>
+      <c r="AY8" s="30"/>
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BE8" s="30"/>
+      <c r="BF8" s="30"/>
+      <c r="BG8" s="30"/>
+      <c r="BH8" s="30"/>
+      <c r="BI8" s="30"/>
+      <c r="BJ8" s="30"/>
+      <c r="BK8" s="30"/>
+      <c r="BL8" s="30"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="B9" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="69">
         <f>Projektanfang</f>
         <v>45733</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="69">
         <v>45750</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31"/>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30"/>
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="B10" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <v>45740</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="69">
         <v>45747</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
-      <c r="BK10" s="31"/>
-      <c r="BL10" s="31"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="30"/>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="30"/>
+      <c r="AS10" s="30"/>
+      <c r="AT10" s="30"/>
+      <c r="AU10" s="30"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="30"/>
+      <c r="AX10" s="30"/>
+      <c r="AY10" s="30"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="30"/>
+      <c r="BB10" s="30"/>
+      <c r="BC10" s="30"/>
+      <c r="BD10" s="30"/>
+      <c r="BE10" s="30"/>
+      <c r="BF10" s="30"/>
+      <c r="BG10" s="30"/>
+      <c r="BH10" s="30"/>
+      <c r="BI10" s="30"/>
+      <c r="BJ10" s="30"/>
+      <c r="BK10" s="30"/>
+      <c r="BL10" s="30"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="A11" s="44"/>
+      <c r="B11" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <v>45740</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="69">
         <v>45750</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
-      <c r="BK11" s="31"/>
-      <c r="BL11" s="31"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="30"/>
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="30"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
+      <c r="BL11" s="30"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="str">
+      <c r="B12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
-      <c r="BK12" s="31"/>
-      <c r="BL12" s="31"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="30"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="30"/>
+      <c r="AQ12" s="30"/>
+      <c r="AR12" s="30"/>
+      <c r="AS12" s="30"/>
+      <c r="AT12" s="30"/>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="A13" s="45"/>
+      <c r="B13" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="19">
         <v>0.5</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="72">
         <v>45748</v>
       </c>
-      <c r="F13" s="75">
-        <v>45785</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
+      <c r="F13" s="72">
+        <v>45792</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
+        <v>45</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="30"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="30"/>
+      <c r="BI13" s="30"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="30"/>
+      <c r="BL13" s="30"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="A14" s="44"/>
+      <c r="B14" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="19">
         <v>0.5</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="72">
         <v>45772</v>
       </c>
-      <c r="F14" s="75">
-        <v>45792</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="F14" s="72">
+        <v>45806</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
-      <c r="BB14" s="31"/>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="31"/>
-      <c r="BE14" s="31"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="31"/>
-      <c r="BH14" s="31"/>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="31"/>
-      <c r="BK14" s="31"/>
-      <c r="BL14" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
+      <c r="B15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-      <c r="AS15" s="31"/>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="31"/>
-      <c r="AV15" s="31"/>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="31"/>
-      <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
-      <c r="BB15" s="31"/>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="31"/>
-      <c r="BE15" s="31"/>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="31"/>
-      <c r="BH15" s="31"/>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="31"/>
-      <c r="BL15" s="31"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="30"/>
+      <c r="AM15" s="30"/>
+      <c r="AN15" s="30"/>
+      <c r="AO15" s="30"/>
+      <c r="AP15" s="30"/>
+      <c r="AQ15" s="30"/>
+      <c r="AR15" s="30"/>
+      <c r="AS15" s="30"/>
+      <c r="AT15" s="30"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="30"/>
+      <c r="AX15" s="30"/>
+      <c r="AY15" s="30"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="30"/>
+      <c r="BC15" s="30"/>
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="30"/>
+      <c r="BF15" s="30"/>
+      <c r="BG15" s="30"/>
+      <c r="BH15" s="30"/>
+      <c r="BI15" s="30"/>
+      <c r="BJ15" s="30"/>
+      <c r="BK15" s="30"/>
+      <c r="BL15" s="30"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="63" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="75">
+        <v>45751</v>
+      </c>
+      <c r="F16" s="75">
+        <v>45768</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="C16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="78">
-        <f>E9+15</f>
-        <v>45748</v>
-      </c>
-      <c r="F16" s="78">
-        <f>E16+5</f>
-        <v>45753</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="31"/>
-      <c r="BE16" s="31"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="31"/>
-      <c r="BH16" s="31"/>
-      <c r="BI16" s="31"/>
-      <c r="BJ16" s="31"/>
-      <c r="BK16" s="31"/>
-      <c r="BL16" s="31"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="30"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
+      <c r="BH16" s="30"/>
+      <c r="BI16" s="30"/>
+      <c r="BJ16" s="30"/>
+      <c r="BK16" s="30"/>
+      <c r="BL16" s="30"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="78">
-        <f>F16+1</f>
-        <v>45754</v>
-      </c>
-      <c r="F17" s="78">
-        <f>E17+4</f>
-        <v>45758</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="A17" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="31"/>
-      <c r="BE17" s="31"/>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="31"/>
-      <c r="BI17" s="31"/>
-      <c r="BJ17" s="31"/>
-      <c r="BK17" s="31"/>
-      <c r="BL17" s="31"/>
+        <v/>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="30"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="30"/>
+      <c r="AM17" s="30"/>
+      <c r="AN17" s="30"/>
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="30"/>
+      <c r="AQ17" s="30"/>
+      <c r="AR17" s="30"/>
+      <c r="AS17" s="30"/>
+      <c r="AT17" s="30"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="30"/>
+      <c r="AW17" s="30"/>
+      <c r="AX17" s="30"/>
+      <c r="AY17" s="30"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="30"/>
+      <c r="BC17" s="30"/>
+      <c r="BD17" s="30"/>
+      <c r="BE17" s="30"/>
+      <c r="BF17" s="30"/>
+      <c r="BG17" s="30"/>
+      <c r="BH17" s="30"/>
+      <c r="BI17" s="30"/>
+      <c r="BJ17" s="30"/>
+      <c r="BK17" s="30"/>
+      <c r="BL17" s="30"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="23"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
       <c r="E18" s="78">
-        <f>E17+5</f>
-        <v>45759</v>
+        <v>45810</v>
       </c>
       <c r="F18" s="78">
-        <f>E18+5</f>
-        <v>45764</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+        <v>45811</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="23"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
       <c r="E19" s="78">
-        <f>F18+1</f>
-        <v>45765</v>
+        <v>45836</v>
       </c>
       <c r="F19" s="78">
-        <f>E19+4</f>
-        <v>45769</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+        <v>45813</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="31"/>
-      <c r="BL19" s="31"/>
+        <v>-22</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="30"/>
+      <c r="AT19" s="30"/>
+      <c r="AU19" s="30"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="30"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="30"/>
+      <c r="BK19" s="30"/>
+      <c r="BL19" s="30"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="78">
-        <f>E18</f>
-        <v>45759</v>
-      </c>
-      <c r="F20" s="78">
-        <f>E20+4</f>
-        <v>45763</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="31"/>
-      <c r="BL20" s="31"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14" t="str">
+      <c r="A21" s="44"/>
+      <c r="B21" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="93">
+        <v>0</v>
+      </c>
+      <c r="E21" s="95">
+        <v>45813</v>
+      </c>
+      <c r="F21" s="95">
+        <v>45820</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="30"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
+      <c r="BB21" s="30"/>
+      <c r="BC21" s="30"/>
+      <c r="BD21" s="30"/>
+      <c r="BE21" s="30"/>
+      <c r="BF21" s="30"/>
+      <c r="BG21" s="30"/>
+      <c r="BH21" s="30"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="30"/>
+      <c r="BK21" s="30"/>
+      <c r="BL21" s="30"/>
+    </row>
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+      <c r="AO22" s="30"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="30"/>
+      <c r="AT22" s="30"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="30"/>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="30"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="30"/>
+      <c r="BB22" s="30"/>
+      <c r="BC22" s="30"/>
+      <c r="BD22" s="30"/>
+      <c r="BE22" s="30"/>
+      <c r="BF22" s="30"/>
+      <c r="BG22" s="30"/>
+      <c r="BH22" s="30"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="30"/>
+      <c r="BK22" s="30"/>
+      <c r="BL22" s="30"/>
+    </row>
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="93">
+        <v>0</v>
+      </c>
+      <c r="E23" s="94">
+        <v>45824</v>
+      </c>
+      <c r="F23" s="95">
+        <v>45824</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="30"/>
+      <c r="AQ23" s="30"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="30"/>
+      <c r="AT23" s="30"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="30"/>
+      <c r="AX23" s="30"/>
+      <c r="AY23" s="30"/>
+      <c r="AZ23" s="30"/>
+      <c r="BA23" s="30"/>
+      <c r="BB23" s="30"/>
+      <c r="BC23" s="30"/>
+      <c r="BD23" s="30"/>
+      <c r="BE23" s="30"/>
+      <c r="BF23" s="30"/>
+      <c r="BG23" s="30"/>
+      <c r="BH23" s="30"/>
+      <c r="BI23" s="30"/>
+      <c r="BJ23" s="30"/>
+      <c r="BK23" s="30"/>
+      <c r="BL23" s="30"/>
+    </row>
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="31"/>
-      <c r="BL21" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
+      <c r="AX24" s="32"/>
+      <c r="AY24" s="32"/>
+      <c r="AZ24" s="32"/>
+      <c r="BA24" s="32"/>
+      <c r="BB24" s="32"/>
+      <c r="BC24" s="32"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="32"/>
+      <c r="BF24" s="32"/>
+      <c r="BG24" s="32"/>
+      <c r="BH24" s="32"/>
+      <c r="BI24" s="32"/>
+      <c r="BJ24" s="32"/>
+      <c r="BK24" s="32"/>
+      <c r="BL24" s="32"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="31"/>
-      <c r="BL22" s="31"/>
+    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="6"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="31"/>
-      <c r="BC23" s="31"/>
-      <c r="BD23" s="31"/>
-      <c r="BE23" s="31"/>
-      <c r="BF23" s="31"/>
-      <c r="BG23" s="31"/>
-      <c r="BH23" s="31"/>
-      <c r="BI23" s="31"/>
-      <c r="BJ23" s="31"/>
-      <c r="BK23" s="31"/>
-      <c r="BL23" s="31"/>
+    <row r="26" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
+      <c r="F26" s="46"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="31"/>
-      <c r="BD24" s="31"/>
-      <c r="BE24" s="31"/>
-      <c r="BF24" s="31"/>
-      <c r="BG24" s="31"/>
-      <c r="BH24" s="31"/>
-      <c r="BI24" s="31"/>
-      <c r="BJ24" s="31"/>
-      <c r="BK24" s="31"/>
-      <c r="BL24" s="31"/>
-    </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
-      <c r="AX25" s="31"/>
-      <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="31"/>
-      <c r="BC25" s="31"/>
-      <c r="BD25" s="31"/>
-      <c r="BE25" s="31"/>
-      <c r="BF25" s="31"/>
-      <c r="BG25" s="31"/>
-      <c r="BH25" s="31"/>
-      <c r="BI25" s="31"/>
-      <c r="BJ25" s="31"/>
-      <c r="BK25" s="31"/>
-      <c r="BL25" s="31"/>
-    </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="31"/>
-      <c r="AZ26" s="31"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="31"/>
-      <c r="BH26" s="31"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="31"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="31"/>
-      <c r="AO27" s="31"/>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="31"/>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="31"/>
-      <c r="BD27" s="31"/>
-      <c r="BE27" s="31"/>
-      <c r="BF27" s="31"/>
-      <c r="BG27" s="31"/>
-      <c r="BH27" s="31"/>
-      <c r="BI27" s="31"/>
-      <c r="BJ27" s="31"/>
-      <c r="BK27" s="31"/>
-      <c r="BL27" s="31"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="31"/>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="31"/>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="31"/>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="31"/>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="31"/>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="31"/>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="31"/>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="31"/>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="31"/>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-      <c r="BE29" s="31"/>
-      <c r="BF29" s="31"/>
-      <c r="BG29" s="31"/>
-      <c r="BH29" s="31"/>
-      <c r="BI29" s="31"/>
-      <c r="BJ29" s="31"/>
-      <c r="BK29" s="31"/>
-      <c r="BL29" s="31"/>
-    </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="31"/>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="31"/>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="31"/>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
-    </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
-      <c r="AX31" s="33"/>
-      <c r="AY31" s="33"/>
-      <c r="AZ31" s="33"/>
-      <c r="BA31" s="33"/>
-      <c r="BB31" s="33"/>
-      <c r="BC31" s="33"/>
-      <c r="BD31" s="33"/>
-      <c r="BE31" s="33"/>
-      <c r="BF31" s="33"/>
-      <c r="BG31" s="33"/>
-      <c r="BH31" s="33"/>
-      <c r="BI31" s="33"/>
-      <c r="BJ31" s="33"/>
-      <c r="BK31" s="33"/>
-      <c r="BL31" s="33"/>
-    </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="11"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="12"/>
+    <row r="27" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D30:D31 D7:D26">
+  <conditionalFormatting sqref="D7:D19 D24">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4506,12 +3973,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL31">
+  <conditionalFormatting sqref="I5:BL24">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL31">
+  <conditionalFormatting sqref="I7:BL24">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4519,7 +3986,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4530,9 +3997,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F17:F18 E18" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4549,7 +4013,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30:D31 D7:D26</xm:sqref>
+          <xm:sqref>D7:D19 D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4565,86 +4029,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="87.140625" style="34" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="36"/>
+    <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="35"/>
     </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="42"/>
+    <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="41"/>
     </row>
-    <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
-        <v>33</v>
+    <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>34</v>
+      <c r="A5" s="39" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
-        <v>35</v>
+      <c r="A6" s="38" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>36</v>
+    <row r="7" spans="1:2" s="34" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
-        <v>37</v>
+    <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
-        <v>38</v>
+      <c r="A9" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>39</v>
+    <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
-        <v>40</v>
+    <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
-        <v>41</v>
+      <c r="A12" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>42</v>
+    <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>43</v>
+    <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>44</v>
+      <c r="A15" s="39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>45</v>
+      <c r="A16" s="39" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4661,23 +4125,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4969,22 +4422,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5011,9 +4471,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>